--- a/biology/Médecine/1846_en_santé_et_médecine/1846_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1846_en_santé_et_médecine/1846_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1846_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1846_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1846 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1846_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1846_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,19 +523,21 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>États-Unis
-30 septembre : première extraction dentaire sous anesthésie par l'éther, à Boston, par le dentiste américain William Morton[1].
+30 septembre : première extraction dentaire sous anesthésie par l'éther, à Boston, par le dentiste américain William Morton.
 France
-Louis Pasteur est reçu à l'agrégation de physique[2].
-Début des travaux de l'hôpital Lariboisière sur les terrains de l'ancien enclos Saint-Lazare[3].
+Louis Pasteur est reçu à l'agrégation de physique.
+Début des travaux de l'hôpital Lariboisière sur les terrains de l'ancien enclos Saint-Lazare.
 Irlande
-Grande Famine en Irlande[4].
+Grande Famine en Irlande.
 Autriche
-Ignaz Phillip Semmelweis est nommé à la maternité de Vienne[5]. Le lavage des mains préconisé par lui fait monter de façon importante le nombre de mères qui survivent à l'accouchement.
+Ignaz Phillip Semmelweis est nommé à la maternité de Vienne. Le lavage des mains préconisé par lui fait monter de façon importante le nombre de mères qui survivent à l'accouchement.
 Allemagne
-Le physiologiste allemand Carl Ludwig perfectionne l'hémodynamomètre de Poiseuille et met au point le « kymographion », un appareil pour enregistrer le pouls ancêtre du sphygmographe[6].</t>
+Le physiologiste allemand Carl Ludwig perfectionne l'hémodynamomètre de Poiseuille et met au point le « kymographion », un appareil pour enregistrer le pouls ancêtre du sphygmographe.</t>
         </is>
       </c>
     </row>
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1846_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1846_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>William Benjamin Carpenter, A manual of physiology, including physiological anatomy, etc., Londres, John Churchill ― Nombreuses rééditions
 9 et 16 novembre : le chimiste Michel-Eugène Chevreul présente à  l’Académie  des  sciences un mémoire sur plusieurs réactions chimiques qui intéressent l'hygiène publique : Mémoire sur plusieurs réactions chimiques qui intéressent l'hygiène des cités populeuses, Paris, impr. de Vve Bouchard-Huzard, 1846, 48 p. (lire en ligne sur Gallica).
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1846_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1846_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Médaille royale de la Royal Society : Richard Owen (1804-1892), médecin, anatomiste et paléontologue britannique.</t>
         </is>
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1846_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1846_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,7 +632,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>3 janvier : Saturnin Arloing (mort en 1911), vétérinaire français.
 10 février : Ira Remsen (mort en 1927), médecin et chimiste américain.
@@ -634,7 +654,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1846_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1846_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -652,11 +672,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>30 janvier : Joseph Constantine Carpue (en) (né en 1764), médecin anglais qui effectue la première rhinoplastie en Grande-Bretagne (publiée en 1817 : (en) « An Account of Two Successful Operations for Restoring a Lost Nose (Lost Noses) from the Integuments of the Forehead, in the Cases of Two Officers in His Majesty's Army : To Which Are Affixed, Historical and Physiological Remarks on the Nasal Operation ; Including Descriptions of the Indian and Italian Methods », The Medico-chirurgical journal and review, vol. 4, no 23,‎ 1817, p. 376–387 (lire en ligne).
 17 février : Jacques de Lens (né en 1786), médecin français.
-1er août :  David Heinrich Hoppe (né en 1760), médecin, pharmacien et botaniste allemand[7].
+1er août :  David Heinrich Hoppe (né en 1760), médecin, pharmacien et botaniste allemand.
 21 septembre : Charles Derosne (né en 1780), pharmacien, chimiste et industriel français.
 14 octobre : Auguste Bérard (né en 1802), chirurgien français.
 26 novembre : Giacomo Tommasini (it) (né en 1768), médecin italien.
